--- a/survey_plots/Skill Scanner Evaluatie (Antwoorden).xlsx
+++ b/survey_plots/Skill Scanner Evaluatie (Antwoorden).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="212">
   <si>
     <t>Tijdstempel</t>
   </si>
@@ -426,6 +426,228 @@
   </si>
   <si>
     <t xml:space="preserve">Niet het totale overzicht gezien </t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Het ontwerp ziet er standaard uit</t>
+  </si>
+  <si>
+    <t>Strakker maken, gebruik maken van levendige kleuren</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik vind de interface geen aantrekkelijke uitstraling/vormgeving hebben. Ik denk dat als je mensen wilt aantrekken om deze in te vullen dat uitstraling/vormgeving wel een belangrijk onderdeel is. </t>
+  </si>
+  <si>
+    <t>zie bovenstaande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overzichtelijk en duidelijk </t>
+  </si>
+  <si>
+    <t>Hoofdinstructeur, aankomend docent.</t>
+  </si>
+  <si>
+    <t>Interessant om eens daadwerkelijk te gaan gebruiken.</t>
+  </si>
+  <si>
+    <t>N.v.t.</t>
+  </si>
+  <si>
+    <t>Duidelijke taal wat je moet doen.</t>
+  </si>
+  <si>
+    <t>Mocht het nog niet van toepassing zijn: meerdere talen kunnen aanklikken.</t>
+  </si>
+  <si>
+    <t>Dat men wellicht in de toekomst zaken zou kunnen aanbevelen om toe te gaan passen.</t>
+  </si>
+  <si>
+    <t>Bij een sollicitant let ik ook erop of hij past in het team, zijn uitstraling, motivatie en enthousiasme. Skill Scanner kan een wetenschappelijke visie van een sollicitant geven. De menselijke kant, zeker ook belangrijk, blijft mensenwerk.</t>
+  </si>
+  <si>
+    <t>Klinische vormgeving en geeft geen warmgevoel, terwijl je juist mensen beoordeeld met wie je wilt gaan samenwerken</t>
+  </si>
+  <si>
+    <t>Warmere kleurstelling en vriendelijker lettertype</t>
+  </si>
+  <si>
+    <t>duidelijk</t>
+  </si>
+  <si>
+    <t>upload zonder hoofdletter</t>
+  </si>
+  <si>
+    <t>Hoe eenvoudiger hoe beter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De informatie is te summier over deze scanner. Daarnaast loop je het grote risico reeds in een vroeg stadium sollicitanten kwijt te raken door een geautomatiseerd proces terwijl aannames ook vaak een gevoel moet zijn.  </t>
+  </si>
+  <si>
+    <t>Gebruik het als een extra tool naast het mensenwerk dat HR is.</t>
+  </si>
+  <si>
+    <t>We zijn in Nederland, spreek dan ook Nederlands. Ik vind al die taalinvloeden niet wenselijk bij sommige functies.</t>
+  </si>
+  <si>
+    <t>De taal</t>
+  </si>
+  <si>
+    <t>idem</t>
+  </si>
+  <si>
+    <t>Saaie interface</t>
+  </si>
+  <si>
+    <t>Banner toevoegen, kleurgebruik (minder eentonig, misschien verschillende tinten), moderniseren</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <t>de vraag is of de juiste trainingen beschikbaar zijn voor degene die nog opgeleid moet worden voor een functie (sollicitant) als ik de keus heb voor iemand die geheel voldoet</t>
+  </si>
+  <si>
+    <t>het mag wat persoonlijker, je voelt je nu als kandidaat wat gerobotiseerd</t>
+  </si>
+  <si>
+    <t>iets persoonlijker maken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">een zin van we gaan je helpen om nog beter te worden, of de baan te krijgen of iets </t>
+  </si>
+  <si>
+    <t>Adviseur Kwaliteit, Arbo &amp; Milieu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Het zou lay-out technisch iets aantrekkelijker gemaakt kunnen worden. </t>
+  </si>
+  <si>
+    <t>De titel lay-out / vormgeving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niks, zo simpel mogelijk houden. </t>
+  </si>
+  <si>
+    <t>Vrij statig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">het ziet er duidelijk uit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">niets </t>
+  </si>
+  <si>
+    <t>Iets opfleuren</t>
+  </si>
+  <si>
+    <t>laborant</t>
+  </si>
+  <si>
+    <t>simpel en duidelijk</t>
+  </si>
+  <si>
+    <t>Kwantitatieve data kan waardevolle input zijn voor het borgen van feiten welke ondersteunend kunnen zijn bij de interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medewrker in de productie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hou het kort en inhoudelijk, mensen zijn geneigd om bij lange intro's af te haken </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zorg voor een diversiteit aan keuzes. Als men niet alls kan dekken ruimte geven om dingen te onderbouwen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">omdat het een en ander mist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De layout is ok, persoonlijk zal ik niet met vakjes werken maar met open velden. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meer diepgang in de persoon motivatoren en dergelijke. </t>
+  </si>
+  <si>
+    <t>Mening</t>
+  </si>
+  <si>
+    <t>flets, standaard, ouderwets</t>
+  </si>
+  <si>
+    <t>kleur en eventueel vorm van kaders veranderen om interface aantrekkelijker te maken</t>
+  </si>
+  <si>
+    <t>logo, afbeelding of watermerk icm met bovenstaande.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpel, wel duidelijk. </t>
+  </si>
+  <si>
+    <t>Layout, logo toevoegen. Spreekt nu niet echt aan.</t>
+  </si>
+  <si>
+    <t>Logo, motivatiebrief kunnen uploaden</t>
+  </si>
+  <si>
+    <t>Optie om naast een cv een motivatie toe te voegen</t>
+  </si>
+  <si>
+    <t>Adviseur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naam, ookal staat deze al bij CV. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Het zou discriminatie op bepaalde gebieden kunnen helpen voorkomen (Denk aan etnisch, geloof), op het gebied van gender benoemen vrouwen en mannen hun skills anders dus ik weet niet hoe dit zou uitpakken. Dus er moet wel gelet worden dat er gender neutrale woorden in de vraagstelling gebruikt worden. </t>
+  </si>
+  <si>
+    <t>Gender neutrale taal is (als dat nog niet van toepassing is tenminste)</t>
+  </si>
+  <si>
+    <t>Duidelijk, maar een beetje saai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job title' groter lettertype, 'pls upload your cv' kleiner lettertype. Naast 'drop file here' ook  optie geven om file te uploaden vanuit computer. </t>
+  </si>
+  <si>
+    <t>Optie: file uploaden vanuit computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duidelijk overzicht </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iets meer kleur of zo, nu wel erg saai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geen idee </t>
+  </si>
+  <si>
+    <t>België</t>
+  </si>
+  <si>
+    <t>kan je meteen zien of je genoeg kennis hebt voor bepaalde functies</t>
+  </si>
+  <si>
+    <t>Lettertype en minder grote letters</t>
+  </si>
+  <si>
+    <t>een logo van de Skill Scanner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afhankelijk op welk ervaringsniveau je zit. Als je net van school komt kan dit helpen, echter je kan niet alles in een CV kwijt als je meer ervaring hebt. Dan gaat het meer om wat je hebt gedaan en hoe, dan de skills mbt opleiding tov functies die je doet of wil doen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je kan dit niet doen op basis van je CV. Je zou moeten gaan denken aan input velden. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">niet echt flitsend, en hoeft ook niet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">laat het </t>
   </si>
 </sst>
 </file>
@@ -460,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -469,6 +691,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -690,7 +915,15 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="57" width="21.57"/>
+    <col customWidth="1" min="1" max="1" width="21.57"/>
+    <col customWidth="1" min="2" max="2" width="42.0"/>
+    <col customWidth="1" min="3" max="33" width="21.57"/>
+    <col customWidth="1" min="34" max="34" width="257.29"/>
+    <col customWidth="1" min="35" max="45" width="21.57"/>
+    <col customWidth="1" min="46" max="46" width="49.29"/>
+    <col customWidth="1" min="47" max="48" width="21.57"/>
+    <col customWidth="1" min="49" max="49" width="163.29"/>
+    <col customWidth="1" min="50" max="57" width="21.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3168,6 +3401,1983 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>44526.54841357638</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ37" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AK37" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AL37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN37" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AO37" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AP37" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AQ37" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AR37" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AS37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV37" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>44526.61832476852</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="P38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="R38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AW38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY38" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>44526.65801465278</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ39" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AK39" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AL39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN39" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AO39" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AP39" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AQ39" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AR39" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AS39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV39" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AW39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX39" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>44526.67911865741</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ40" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AK40" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AL40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN40" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AO40" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AP40" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AQ40" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AR40" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AS40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV40" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AW40" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>44526.68853409722</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ41" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AK41" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AL41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN41" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AO41" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AP41" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AQ41" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AR41" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AS41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU41" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV41" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AW41" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX41" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY41" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>44526.714952581024</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V42" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AG42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH42" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV42" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AW42" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX42" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY42" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>44527.78701489583</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ43" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AK43" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AL43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN43" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AO43" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AP43" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AQ43" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AR43" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AS43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV43" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AW43" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX43" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>44528.85987140046</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV44" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AW44" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>44530.36192171296</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ45" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AK45" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AL45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN45" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AO45" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AP45" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AQ45" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AR45" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AS45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT45" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU45" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV45" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AW45" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX45" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY45" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>44530.4736178125</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V46" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AG46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV46" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AW46" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX46" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY46" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>44530.49199230324</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V47" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AG47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH47" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV47" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AW47" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX47" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY47" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>44530.560772372686</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V48" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AG48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV48" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AW48" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AX48" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AY48" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>44530.580762048616</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V49" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AG49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV49" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AW49" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>44532.419228032406</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L50" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV50" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AW50" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX50" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>44532.424725069446</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L51" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV51" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AX51" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>44532.59483681713</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L52" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV52" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AW52" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>44532.6804790625</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V53" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="X53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AG53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV53" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>44532.83057831018</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L54" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV54" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AW54" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>44533.097796064816</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H55" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L55" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="M55" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="N55" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="O55" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="P55" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="R55" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T55" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="U55" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV55" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AW55" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX55" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY55" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>44533.61518296297</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="M56" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="N56" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="O56" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="P56" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="R56" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV56" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AW56" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>44533.736569733795</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L57" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV57" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AW57" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX57" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY57" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>44533.790671759256</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V58" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AF58" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AG58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV58" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AW58" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX58" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AY58" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>44533.79443938658</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L59" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV59" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>44533.801788819444</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V60" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AF60" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AG60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV60" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AY60" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>44533.811306296295</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V61" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="X61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AG61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV61" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AY61" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>44533.81806936343</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V62" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AG62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH62" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI62" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV62" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AW62" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX62" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY62" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>44533.93997831018</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ63" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AK63" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AL63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN63" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AO63" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AP63" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AQ63" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AR63" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AS63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV63" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AW63" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX63" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY63" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>44534.63972167824</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V64" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="X64" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y64" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z64" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AG64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV64" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AW64" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX64" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY64" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>44534.757064652775</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V65" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="X65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AG65" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV65" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AW65" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX65" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY65" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>44536.62420413195</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L66" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="P66" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="R66" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AV66" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AW66" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX66" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
